--- a/iteración-4/Iteracion4/resources/Horas-de-trabajo.xlsx
+++ b/iteración-4/Iteracion4/resources/Horas-de-trabajo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\German\ORT\IngenieriaSWAgil1\Miniproyecto\isa1-n6a-id-mini-proyecto-agil-isa-n6a-id-mini-proyecto-agil-equipo2\iteración-4\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\German\ORT\IngenieriaSWAgil1\Miniproyecto\isa1-n6a-id-mini-proyecto-agil-isa-n6a-id-mini-proyecto-agil-equipo2\iteración-4\Iteracion4\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Germán Correa</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Reuniones</t>
+  </si>
+  <si>
+    <t>Doc Final</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +464,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -481,7 +484,9 @@
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -492,6 +497,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -502,6 +508,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -512,6 +519,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -522,6 +530,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -532,6 +541,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -542,6 +552,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -552,6 +563,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
